--- a/RiceHackathonFile.xlsx
+++ b/RiceHackathonFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayzb\AppData\Local\Packages\Microsoft.MicrosoftEdge_8wekyb3d8bbwe\TempState\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compsci\HackRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FC1CA-9FF9-4637-9279-16A8B0065FB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5A685-E8FC-4D59-A85F-51461F35DE91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -730,19 +730,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17702070-7F29-4ACF-8564-02FD1CB57B43}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -770,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -784,12 +784,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -802,302 +802,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DB88B-AC6A-43C1-9AFD-1A96E9A23D3F}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B2" s="3">
         <v>8.6956521739130401E-3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.13043478260869501</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.3478260869565202E-2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.13043478260869501</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.147826086956521</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.16521739130434701</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.7391304347826E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.24347826086956501</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8.6956521739130405E-2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.113043478260869</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H6">
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.147826086956521</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.16521739130434701</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.7391304347826E-2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.24347826086956501</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.113043478260869</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
       <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.3478260869565202E-2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
         <v>3</v>
       </c>
     </row>
@@ -1109,136 +1109,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1250,79 +1250,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDDD84-14EF-49D0-B1AB-E471924F6A4A}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
+      <c r="B2">
+        <v>29.755537</v>
+      </c>
+      <c r="C2">
+        <v>-95.372003000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>29.716360999999999</v>
+      </c>
       <c r="C3">
-        <v>29.755537</v>
-      </c>
-      <c r="D3">
-        <v>-95.372003000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>-95.409329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>29.712817999999999</v>
       </c>
       <c r="C4">
-        <v>29.716360999999999</v>
-      </c>
-      <c r="D4">
-        <v>-95.409329</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>-95.401964000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>29.721943</v>
       </c>
       <c r="C5">
-        <v>29.712817999999999</v>
-      </c>
-      <c r="D5">
-        <v>-95.401964000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>-95.399359000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>29.717912999999999</v>
       </c>
       <c r="C6">
-        <v>29.721943</v>
-      </c>
-      <c r="D6">
-        <v>-95.399359000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>29.717912999999999</v>
-      </c>
-      <c r="D7">
         <v>-95.401922999999996</v>
       </c>
     </row>
@@ -1333,838 +1335,811 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F32FF5-CC5C-41C1-BDFE-3C5288199775}">
-  <dimension ref="A2:N44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1001</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43357.925000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
-        <v>43357.925000000003</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4">
-        <v>1002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5">
-        <v>1003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G7" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6">
-        <v>1004</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7">
-        <v>1005</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8">
-        <v>1006</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>74</v>
+      <c r="G8" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9">
-        <v>1007</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>76</v>
+      <c r="G9" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10">
-        <v>1008</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43358.593055555553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11">
-        <v>1009</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11">
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12">
-        <v>1010</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13">
-        <v>1011</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9">
-        <v>43358.593055555553</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43358.777083333334</v>
       </c>
       <c r="I13" s="4"/>
       <c r="K13" s="6"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14">
-        <v>1012</v>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>43358.777083333334</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="9">
+        <v>43356.749305555553</v>
       </c>
       <c r="K14" s="6"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15">
-        <v>1013</v>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" s="9">
-        <v>43356.749305555553</v>
+        <v>9</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43358.134027777778</v>
       </c>
       <c r="K15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16">
-        <v>1014</v>
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9">
-        <v>43358.134027777778</v>
+        <v>7</v>
+      </c>
+      <c r="G16" s="9">
+        <v>43358.506249999999</v>
       </c>
       <c r="K16" s="6"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17">
-        <v>1015</v>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17" s="9">
-        <v>43358.506249999999</v>
+        <v>14</v>
+      </c>
+      <c r="G17" s="9">
+        <v>43356.984722222223</v>
       </c>
       <c r="K17" s="6"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18">
-        <v>1016</v>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18" s="9">
-        <v>43356.984722222223</v>
+        <v>3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>43357.80972222222</v>
       </c>
       <c r="K18" s="6"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19">
-        <v>1017</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="9">
-        <v>43357.80972222222</v>
+      <c r="G19" s="9">
+        <v>43355.491666666669</v>
       </c>
       <c r="K19" s="6"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20">
-        <v>1018</v>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" s="9">
-        <v>43355.491666666669</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="9">
+        <v>43356.414583333331</v>
       </c>
       <c r="K20" s="6"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21">
-        <v>1019</v>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>13</v>
-      </c>
-      <c r="H21" s="9">
-        <v>43356.414583333331</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>43355.241666666669</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22">
-        <v>1020</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>43355.241666666669</v>
+      <c r="G22" s="9">
+        <v>43358.336805555555</v>
       </c>
       <c r="K22" s="6"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23">
-        <v>1021</v>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>43358.121527777781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9">
+        <v>43356.708333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9">
+        <v>43358.765972222223</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>43358.336805555555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24">
-        <v>1022</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9">
+        <v>43357.30972222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24" s="9">
-        <v>43358.121527777781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25">
-        <v>1023</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>43355.398611111108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="9">
-        <v>43356.708333333336</v>
-      </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26">
-        <v>1024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="9">
-        <v>43358.765972222223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27">
-        <v>1025</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28">
         <v>4</v>
-      </c>
-      <c r="H27" s="9">
-        <v>43357.30972222222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28">
-        <v>1026</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
+        <v>43358.538194444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>43355.159722222219</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" s="9">
+        <v>43356.647222222222</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="H28" s="9">
-        <v>43355.398611111108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29">
-        <v>1027</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" s="9">
-        <v>43358.538194444445</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30">
-        <v>1028</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <v>43355.159722222219</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31">
-        <v>1029</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
       <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31" s="9">
-        <v>43356.647222222222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G31" s="9">
+        <v>43356.431250000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32">
-        <v>1030</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32" s="9">
-        <v>43356.431250000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
     </row>
   </sheetData>
